--- a/config_10.26/extra_award_server.xlsx
+++ b/config_10.26/extra_award_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>id|</t>
   </si>
@@ -178,9 +178,6 @@
     <t>buyu_3d_get_use_item</t>
   </si>
   <si>
-    <t>100,110,130,150</t>
-  </si>
-  <si>
     <t>buyu_get_use_item</t>
   </si>
   <si>
@@ -197,6 +194,14 @@
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.1,1.3,1.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.1,1.3,1.5</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -710,9 +715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1565"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -743,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" customHeight="1">
@@ -754,16 +759,16 @@
         <v>1000702</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9">
         <v>1000703</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>16</v>
+      <c r="E2" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" customHeight="1">
@@ -6781,8 +6786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6812,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>8</v>
@@ -6835,10 +6840,10 @@
         <v>1000703</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2"/>
@@ -6851,16 +6856,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
         <v>1000703</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
+      <c r="E3" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
     </row>

--- a/config_10.26/extra_award_server.xlsx
+++ b/config_10.26/extra_award_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t>id|</t>
   </si>
@@ -182,38 +182,127 @@
   </si>
   <si>
     <t>_common_rank_ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>extra_rank_type|排行榜类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1,1.1,1.3,1.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1,1.1,1.3,1.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_spend</t>
+  </si>
+  <si>
+    <t>zajindan_spend</t>
+  </si>
+  <si>
+    <t>jykp_spend</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_spend</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_spend</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_spend</t>
+  </si>
+  <si>
+    <t>buyu_spend</t>
+  </si>
+  <si>
+    <t>lwzb_game_spend</t>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+  </si>
+  <si>
+    <t>tantanle_spend</t>
+  </si>
+  <si>
+    <t>zajindan_caishen_model_spend</t>
+  </si>
+  <si>
+    <t>leijixiaohao_rank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.05</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -271,6 +360,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -337,10 +432,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -350,10 +445,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -367,12 +462,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -427,13 +516,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,9 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -758,13 +862,13 @@
       <c r="B2" s="9">
         <v>1000702</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="9">
         <v>1000703</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -991,7 +1095,7 @@
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="2:5" s="24" customFormat="1">
+    <row r="46" spans="2:5" s="22" customFormat="1">
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
@@ -1306,35 +1410,35 @@
       <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="26"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="26"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="26"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="26"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="26"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="8"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="26"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="26"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="8"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="26"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="2:3">
@@ -1542,7 +1646,7 @@
       <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="26"/>
+      <c r="B183" s="24"/>
       <c r="C183" s="8"/>
     </row>
     <row r="184" spans="2:3">
@@ -1578,31 +1682,31 @@
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="24"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="8"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="24"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="24"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="8"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="24"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="8"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="24"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="8"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="24"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="8"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="24"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="8"/>
     </row>
     <row r="199" spans="2:3">
@@ -1643,83 +1747,83 @@
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="9"/>
-      <c r="C208" s="22"/>
+      <c r="C208" s="20"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="9"/>
-      <c r="C209" s="22"/>
+      <c r="C209" s="20"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="9"/>
-      <c r="C210" s="22"/>
+      <c r="C210" s="20"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="9"/>
-      <c r="C211" s="22"/>
+      <c r="C211" s="20"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="9"/>
-      <c r="C212" s="22"/>
+      <c r="C212" s="20"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="9"/>
-      <c r="C213" s="22"/>
+      <c r="C213" s="20"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="9"/>
-      <c r="C214" s="22"/>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="9"/>
-      <c r="C215" s="22"/>
+      <c r="C215" s="20"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="9"/>
-      <c r="C216" s="22"/>
+      <c r="C216" s="20"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="9"/>
-      <c r="C217" s="22"/>
+      <c r="C217" s="20"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="9"/>
-      <c r="C218" s="22"/>
+      <c r="C218" s="20"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="9"/>
-      <c r="C219" s="22"/>
+      <c r="C219" s="20"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="9"/>
-      <c r="C220" s="22"/>
+      <c r="C220" s="20"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="9"/>
-      <c r="C221" s="22"/>
+      <c r="C221" s="20"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="9"/>
-      <c r="C222" s="22"/>
+      <c r="C222" s="20"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="9"/>
-      <c r="C223" s="22"/>
+      <c r="C223" s="20"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="9"/>
-      <c r="C224" s="22"/>
+      <c r="C224" s="20"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="9"/>
-      <c r="C225" s="22"/>
+      <c r="C225" s="20"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="9"/>
-      <c r="C226" s="22"/>
+      <c r="C226" s="20"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="9"/>
-      <c r="C227" s="22"/>
+      <c r="C227" s="20"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="9"/>
@@ -1883,11 +1987,11 @@
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="9"/>
-      <c r="C268" s="22"/>
+      <c r="C268" s="20"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="9"/>
-      <c r="C269" s="22"/>
+      <c r="C269" s="20"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="9"/>
@@ -2382,7 +2486,7 @@
       <c r="C392" s="7"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="26"/>
+      <c r="B393" s="24"/>
       <c r="C393" s="7"/>
     </row>
     <row r="394" spans="2:3">
@@ -2531,227 +2635,227 @@
     </row>
     <row r="430" spans="2:3">
       <c r="B430" s="9"/>
-      <c r="C430" s="27"/>
+      <c r="C430" s="25"/>
     </row>
     <row r="431" spans="2:3">
       <c r="B431" s="9"/>
-      <c r="C431" s="23"/>
+      <c r="C431" s="21"/>
     </row>
     <row r="432" spans="2:3">
       <c r="B432" s="9"/>
-      <c r="C432" s="23"/>
+      <c r="C432" s="21"/>
     </row>
     <row r="433" spans="2:3">
       <c r="B433" s="9"/>
-      <c r="C433" s="23"/>
+      <c r="C433" s="21"/>
     </row>
     <row r="434" spans="2:3">
       <c r="B434" s="9"/>
-      <c r="C434" s="23"/>
+      <c r="C434" s="21"/>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" s="9"/>
-      <c r="C435" s="27"/>
+      <c r="C435" s="25"/>
     </row>
     <row r="436" spans="2:3">
       <c r="B436" s="9"/>
-      <c r="C436" s="13"/>
+      <c r="C436" s="11"/>
     </row>
     <row r="437" spans="2:3">
       <c r="B437" s="9"/>
-      <c r="C437" s="13"/>
+      <c r="C437" s="11"/>
     </row>
     <row r="438" spans="2:3">
       <c r="B438" s="9"/>
-      <c r="C438" s="13"/>
+      <c r="C438" s="11"/>
     </row>
     <row r="439" spans="2:3">
       <c r="B439" s="9"/>
-      <c r="C439" s="13"/>
+      <c r="C439" s="11"/>
     </row>
     <row r="440" spans="2:3">
       <c r="B440" s="9"/>
-      <c r="C440" s="13"/>
+      <c r="C440" s="11"/>
     </row>
     <row r="441" spans="2:3">
       <c r="B441" s="9"/>
-      <c r="C441" s="13"/>
+      <c r="C441" s="11"/>
     </row>
     <row r="442" spans="2:3">
       <c r="B442" s="9"/>
-      <c r="C442" s="13"/>
+      <c r="C442" s="11"/>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" s="9"/>
-      <c r="C443" s="13"/>
+      <c r="C443" s="11"/>
     </row>
     <row r="444" spans="2:3">
       <c r="B444" s="9"/>
-      <c r="C444" s="13"/>
+      <c r="C444" s="11"/>
     </row>
     <row r="445" spans="2:3">
       <c r="B445" s="9"/>
-      <c r="C445" s="13"/>
+      <c r="C445" s="11"/>
     </row>
     <row r="446" spans="2:3">
       <c r="B446" s="9"/>
-      <c r="C446" s="13"/>
+      <c r="C446" s="11"/>
     </row>
     <row r="447" spans="2:3">
       <c r="B447" s="9"/>
-      <c r="C447" s="13"/>
+      <c r="C447" s="11"/>
     </row>
     <row r="448" spans="2:3">
       <c r="B448" s="9"/>
-      <c r="C448" s="13"/>
+      <c r="C448" s="11"/>
     </row>
     <row r="449" spans="2:3">
       <c r="B449" s="9"/>
-      <c r="C449" s="13"/>
+      <c r="C449" s="11"/>
     </row>
     <row r="450" spans="2:3">
       <c r="B450" s="9"/>
-      <c r="C450" s="13"/>
+      <c r="C450" s="11"/>
     </row>
     <row r="451" spans="2:3">
       <c r="B451" s="9"/>
-      <c r="C451" s="13"/>
+      <c r="C451" s="11"/>
     </row>
     <row r="452" spans="2:3">
       <c r="B452" s="9"/>
-      <c r="C452" s="13"/>
+      <c r="C452" s="11"/>
     </row>
     <row r="453" spans="2:3">
       <c r="B453" s="9"/>
-      <c r="C453" s="13"/>
+      <c r="C453" s="11"/>
     </row>
     <row r="454" spans="2:3">
       <c r="B454" s="9"/>
-      <c r="C454" s="13"/>
+      <c r="C454" s="11"/>
     </row>
     <row r="455" spans="2:3">
       <c r="B455" s="9"/>
-      <c r="C455" s="13"/>
+      <c r="C455" s="11"/>
     </row>
     <row r="456" spans="2:3">
       <c r="B456" s="9"/>
-      <c r="C456" s="13"/>
+      <c r="C456" s="11"/>
     </row>
     <row r="457" spans="2:3">
       <c r="B457" s="9"/>
-      <c r="C457" s="28"/>
+      <c r="C457" s="26"/>
     </row>
     <row r="458" spans="2:3">
       <c r="B458" s="9"/>
-      <c r="C458" s="29"/>
+      <c r="C458" s="27"/>
     </row>
     <row r="459" spans="2:3">
       <c r="B459" s="9"/>
-      <c r="C459" s="28"/>
+      <c r="C459" s="26"/>
     </row>
     <row r="460" spans="2:3">
       <c r="B460" s="9"/>
-      <c r="C460" s="28"/>
+      <c r="C460" s="26"/>
     </row>
     <row r="461" spans="2:3">
       <c r="B461" s="9"/>
-      <c r="C461" s="28"/>
+      <c r="C461" s="26"/>
     </row>
     <row r="462" spans="2:3">
       <c r="B462" s="9"/>
-      <c r="C462" s="28"/>
+      <c r="C462" s="26"/>
     </row>
     <row r="463" spans="2:3">
       <c r="B463" s="9"/>
-      <c r="C463" s="28"/>
+      <c r="C463" s="26"/>
     </row>
     <row r="464" spans="2:3">
       <c r="B464" s="9"/>
-      <c r="C464" s="28"/>
+      <c r="C464" s="26"/>
     </row>
     <row r="465" spans="2:3">
       <c r="B465" s="9"/>
-      <c r="C465" s="28"/>
+      <c r="C465" s="26"/>
     </row>
     <row r="466" spans="2:3">
       <c r="B466" s="9"/>
-      <c r="C466" s="28"/>
+      <c r="C466" s="26"/>
     </row>
     <row r="467" spans="2:3">
       <c r="B467" s="9"/>
-      <c r="C467" s="29"/>
+      <c r="C467" s="27"/>
     </row>
     <row r="468" spans="2:3">
       <c r="B468" s="9"/>
-      <c r="C468" s="28"/>
+      <c r="C468" s="26"/>
     </row>
     <row r="469" spans="2:3">
       <c r="B469" s="9"/>
-      <c r="C469" s="28"/>
+      <c r="C469" s="26"/>
     </row>
     <row r="470" spans="2:3">
       <c r="B470" s="9"/>
-      <c r="C470" s="28"/>
+      <c r="C470" s="26"/>
     </row>
     <row r="471" spans="2:3">
       <c r="B471" s="9"/>
-      <c r="C471" s="28"/>
+      <c r="C471" s="26"/>
     </row>
     <row r="472" spans="2:3">
       <c r="B472" s="9"/>
-      <c r="C472" s="28"/>
+      <c r="C472" s="26"/>
     </row>
     <row r="473" spans="2:3">
       <c r="B473" s="9"/>
-      <c r="C473" s="28"/>
+      <c r="C473" s="26"/>
     </row>
     <row r="474" spans="2:3">
       <c r="B474" s="9"/>
-      <c r="C474" s="28"/>
+      <c r="C474" s="26"/>
     </row>
     <row r="475" spans="2:3">
       <c r="B475" s="9"/>
-      <c r="C475" s="28"/>
+      <c r="C475" s="26"/>
     </row>
     <row r="476" spans="2:3">
       <c r="B476" s="9"/>
-      <c r="C476" s="28"/>
+      <c r="C476" s="26"/>
     </row>
     <row r="477" spans="2:3">
       <c r="B477" s="9"/>
-      <c r="C477" s="28"/>
+      <c r="C477" s="26"/>
     </row>
     <row r="478" spans="2:3">
       <c r="B478" s="9"/>
-      <c r="C478" s="28"/>
+      <c r="C478" s="26"/>
     </row>
     <row r="479" spans="2:3">
       <c r="B479" s="9"/>
-      <c r="C479" s="28"/>
+      <c r="C479" s="26"/>
     </row>
     <row r="480" spans="2:3">
       <c r="B480" s="9"/>
-      <c r="C480" s="28"/>
+      <c r="C480" s="26"/>
     </row>
     <row r="481" spans="2:3">
       <c r="B481" s="9"/>
-      <c r="C481" s="28"/>
+      <c r="C481" s="26"/>
     </row>
     <row r="482" spans="2:3">
       <c r="B482" s="9"/>
-      <c r="C482" s="28"/>
+      <c r="C482" s="26"/>
     </row>
     <row r="483" spans="2:3">
       <c r="B483" s="9"/>
-      <c r="C483" s="28"/>
+      <c r="C483" s="26"/>
     </row>
     <row r="484" spans="2:3">
       <c r="B484" s="9"/>
-      <c r="C484" s="28"/>
+      <c r="C484" s="26"/>
     </row>
     <row r="485" spans="2:3">
       <c r="B485" s="9"/>
-      <c r="C485" s="28"/>
+      <c r="C485" s="26"/>
     </row>
     <row r="486" spans="2:3">
       <c r="B486" s="9"/>
@@ -2815,7 +2919,7 @@
     </row>
     <row r="501" spans="2:3">
       <c r="B501" s="9"/>
-      <c r="C501" s="30"/>
+      <c r="C501" s="28"/>
     </row>
     <row r="502" spans="2:3">
       <c r="B502" s="9"/>
@@ -2910,223 +3014,223 @@
       <c r="C524" s="7"/>
     </row>
     <row r="525" spans="2:3">
-      <c r="B525" s="22"/>
+      <c r="B525" s="20"/>
       <c r="C525" s="7"/>
     </row>
     <row r="526" spans="2:3">
-      <c r="B526" s="22"/>
+      <c r="B526" s="20"/>
       <c r="C526" s="7"/>
     </row>
     <row r="527" spans="2:3">
-      <c r="B527" s="22"/>
+      <c r="B527" s="20"/>
       <c r="C527" s="7"/>
     </row>
     <row r="528" spans="2:3">
-      <c r="B528" s="22"/>
+      <c r="B528" s="20"/>
       <c r="C528" s="7"/>
     </row>
     <row r="529" spans="2:3">
-      <c r="B529" s="22"/>
+      <c r="B529" s="20"/>
       <c r="C529" s="7"/>
     </row>
     <row r="530" spans="2:3">
-      <c r="B530" s="22"/>
+      <c r="B530" s="20"/>
       <c r="C530" s="7"/>
     </row>
     <row r="531" spans="2:3">
-      <c r="B531" s="22"/>
+      <c r="B531" s="20"/>
       <c r="C531" s="7"/>
     </row>
     <row r="532" spans="2:3">
-      <c r="B532" s="22"/>
+      <c r="B532" s="20"/>
       <c r="C532" s="7"/>
     </row>
     <row r="533" spans="2:3">
-      <c r="B533" s="22"/>
+      <c r="B533" s="20"/>
       <c r="C533" s="7"/>
     </row>
     <row r="534" spans="2:3">
-      <c r="B534" s="22"/>
+      <c r="B534" s="20"/>
       <c r="C534" s="7"/>
     </row>
     <row r="535" spans="2:3">
-      <c r="B535" s="22"/>
+      <c r="B535" s="20"/>
       <c r="C535" s="7"/>
     </row>
     <row r="536" spans="2:3">
-      <c r="B536" s="22"/>
+      <c r="B536" s="20"/>
       <c r="C536" s="7"/>
     </row>
     <row r="537" spans="2:3">
-      <c r="B537" s="22"/>
+      <c r="B537" s="20"/>
       <c r="C537" s="7"/>
     </row>
     <row r="538" spans="2:3">
-      <c r="B538" s="22"/>
+      <c r="B538" s="20"/>
       <c r="C538" s="7"/>
     </row>
     <row r="539" spans="2:3">
-      <c r="B539" s="22"/>
+      <c r="B539" s="20"/>
       <c r="C539" s="7"/>
     </row>
     <row r="540" spans="2:3">
-      <c r="B540" s="22"/>
+      <c r="B540" s="20"/>
       <c r="C540" s="7"/>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="22"/>
+      <c r="B541" s="20"/>
       <c r="C541" s="7"/>
     </row>
     <row r="542" spans="2:3">
-      <c r="B542" s="22"/>
+      <c r="B542" s="20"/>
       <c r="C542" s="7"/>
     </row>
     <row r="543" spans="2:3">
-      <c r="B543" s="22"/>
+      <c r="B543" s="20"/>
       <c r="C543" s="7"/>
     </row>
     <row r="544" spans="2:3">
-      <c r="B544" s="22"/>
+      <c r="B544" s="20"/>
       <c r="C544" s="7"/>
     </row>
     <row r="545" spans="2:3">
-      <c r="B545" s="22"/>
+      <c r="B545" s="20"/>
       <c r="C545" s="7"/>
     </row>
     <row r="546" spans="2:3">
-      <c r="B546" s="22"/>
+      <c r="B546" s="20"/>
       <c r="C546" s="7"/>
     </row>
     <row r="547" spans="2:3">
-      <c r="B547" s="22"/>
+      <c r="B547" s="20"/>
       <c r="C547" s="7"/>
     </row>
     <row r="548" spans="2:3">
-      <c r="B548" s="22"/>
+      <c r="B548" s="20"/>
       <c r="C548" s="7"/>
     </row>
     <row r="549" spans="2:3">
-      <c r="B549" s="22"/>
+      <c r="B549" s="20"/>
       <c r="C549" s="7"/>
     </row>
     <row r="550" spans="2:3">
-      <c r="B550" s="22"/>
+      <c r="B550" s="20"/>
       <c r="C550" s="7"/>
     </row>
     <row r="551" spans="2:3">
-      <c r="B551" s="22"/>
+      <c r="B551" s="20"/>
       <c r="C551" s="7"/>
     </row>
     <row r="552" spans="2:3">
-      <c r="B552" s="22"/>
+      <c r="B552" s="20"/>
       <c r="C552" s="7"/>
     </row>
     <row r="553" spans="2:3">
-      <c r="B553" s="22"/>
+      <c r="B553" s="20"/>
       <c r="C553" s="7"/>
     </row>
     <row r="554" spans="2:3">
-      <c r="B554" s="22"/>
+      <c r="B554" s="20"/>
       <c r="C554" s="7"/>
     </row>
     <row r="555" spans="2:3">
-      <c r="B555" s="22"/>
+      <c r="B555" s="20"/>
       <c r="C555" s="7"/>
     </row>
     <row r="556" spans="2:3">
-      <c r="B556" s="22"/>
+      <c r="B556" s="20"/>
       <c r="C556" s="7"/>
     </row>
     <row r="557" spans="2:3">
-      <c r="B557" s="22"/>
+      <c r="B557" s="20"/>
       <c r="C557" s="7"/>
     </row>
     <row r="558" spans="2:3">
-      <c r="B558" s="22"/>
+      <c r="B558" s="20"/>
       <c r="C558" s="7"/>
     </row>
     <row r="559" spans="2:3">
-      <c r="B559" s="22"/>
+      <c r="B559" s="20"/>
       <c r="C559" s="7"/>
     </row>
     <row r="560" spans="2:3">
-      <c r="B560" s="22"/>
+      <c r="B560" s="20"/>
       <c r="C560" s="7"/>
     </row>
     <row r="561" spans="2:3">
-      <c r="B561" s="22"/>
+      <c r="B561" s="20"/>
       <c r="C561" s="7"/>
     </row>
     <row r="562" spans="2:3">
-      <c r="B562" s="22"/>
+      <c r="B562" s="20"/>
       <c r="C562" s="7"/>
     </row>
     <row r="563" spans="2:3">
-      <c r="B563" s="22"/>
-      <c r="C563" s="28"/>
+      <c r="B563" s="20"/>
+      <c r="C563" s="26"/>
     </row>
     <row r="564" spans="2:3">
-      <c r="B564" s="22"/>
-      <c r="C564" s="28"/>
+      <c r="B564" s="20"/>
+      <c r="C564" s="26"/>
     </row>
     <row r="565" spans="2:3">
-      <c r="B565" s="22"/>
-      <c r="C565" s="28"/>
+      <c r="B565" s="20"/>
+      <c r="C565" s="26"/>
     </row>
     <row r="566" spans="2:3">
-      <c r="B566" s="22"/>
-      <c r="C566" s="28"/>
+      <c r="B566" s="20"/>
+      <c r="C566" s="26"/>
     </row>
     <row r="567" spans="2:3">
-      <c r="B567" s="22"/>
-      <c r="C567" s="28"/>
+      <c r="B567" s="20"/>
+      <c r="C567" s="26"/>
     </row>
     <row r="568" spans="2:3">
-      <c r="B568" s="22"/>
-      <c r="C568" s="28"/>
+      <c r="B568" s="20"/>
+      <c r="C568" s="26"/>
     </row>
     <row r="569" spans="2:3">
-      <c r="B569" s="22"/>
-      <c r="C569" s="28"/>
+      <c r="B569" s="20"/>
+      <c r="C569" s="26"/>
     </row>
     <row r="570" spans="2:3">
-      <c r="B570" s="22"/>
-      <c r="C570" s="28"/>
+      <c r="B570" s="20"/>
+      <c r="C570" s="26"/>
     </row>
     <row r="571" spans="2:3">
-      <c r="B571" s="22"/>
-      <c r="C571" s="28"/>
+      <c r="B571" s="20"/>
+      <c r="C571" s="26"/>
     </row>
     <row r="572" spans="2:3">
-      <c r="B572" s="22"/>
-      <c r="C572" s="28"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="26"/>
     </row>
     <row r="573" spans="2:3">
-      <c r="B573" s="22"/>
-      <c r="C573" s="28"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="26"/>
     </row>
     <row r="574" spans="2:3">
-      <c r="B574" s="22"/>
-      <c r="C574" s="28"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="26"/>
     </row>
     <row r="575" spans="2:3">
-      <c r="B575" s="22"/>
-      <c r="C575" s="28"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="26"/>
     </row>
     <row r="576" spans="2:3">
-      <c r="B576" s="22"/>
-      <c r="C576" s="28"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="26"/>
     </row>
     <row r="577" spans="2:3">
-      <c r="B577" s="22"/>
+      <c r="B577" s="20"/>
       <c r="C577" s="7"/>
     </row>
     <row r="578" spans="2:3">
-      <c r="B578" s="22"/>
+      <c r="B578" s="20"/>
       <c r="C578" s="7"/>
     </row>
     <row r="579" spans="2:3">
-      <c r="B579" s="22"/>
+      <c r="B579" s="20"/>
       <c r="C579" s="7"/>
     </row>
     <row r="580" spans="2:3">
@@ -3134,19 +3238,19 @@
       <c r="C580" s="7"/>
     </row>
     <row r="581" spans="2:3">
-      <c r="B581" s="22"/>
+      <c r="B581" s="20"/>
       <c r="C581" s="7"/>
     </row>
     <row r="582" spans="2:3">
-      <c r="B582" s="22"/>
+      <c r="B582" s="20"/>
       <c r="C582" s="7"/>
     </row>
     <row r="583" spans="2:3">
-      <c r="B583" s="22"/>
+      <c r="B583" s="20"/>
       <c r="C583" s="7"/>
     </row>
     <row r="584" spans="2:3">
-      <c r="B584" s="22"/>
+      <c r="B584" s="20"/>
       <c r="C584" s="7"/>
     </row>
     <row r="585" spans="2:3">
@@ -3154,11 +3258,11 @@
       <c r="C585" s="7"/>
     </row>
     <row r="586" spans="2:3">
-      <c r="B586" s="22"/>
+      <c r="B586" s="20"/>
       <c r="C586" s="7"/>
     </row>
     <row r="587" spans="2:3">
-      <c r="B587" s="22"/>
+      <c r="B587" s="20"/>
       <c r="C587" s="7"/>
     </row>
     <row r="588" spans="2:3">
@@ -3166,11 +3270,11 @@
       <c r="C588" s="7"/>
     </row>
     <row r="589" spans="2:3">
-      <c r="B589" s="22"/>
+      <c r="B589" s="20"/>
       <c r="C589" s="7"/>
     </row>
     <row r="590" spans="2:3">
-      <c r="B590" s="22"/>
+      <c r="B590" s="20"/>
       <c r="C590" s="7"/>
     </row>
     <row r="591" spans="2:3">
@@ -3182,7 +3286,7 @@
       <c r="C592" s="7"/>
     </row>
     <row r="593" spans="2:3">
-      <c r="B593" s="22"/>
+      <c r="B593" s="20"/>
       <c r="C593" s="7"/>
     </row>
     <row r="594" spans="2:3">
@@ -3190,7 +3294,7 @@
       <c r="C594" s="7"/>
     </row>
     <row r="595" spans="2:3">
-      <c r="B595" s="22"/>
+      <c r="B595" s="20"/>
       <c r="C595" s="7"/>
     </row>
     <row r="596" spans="2:3">
@@ -3198,7 +3302,7 @@
       <c r="C596" s="7"/>
     </row>
     <row r="597" spans="2:3">
-      <c r="B597" s="22"/>
+      <c r="B597" s="20"/>
       <c r="C597" s="7"/>
     </row>
     <row r="598" spans="2:3">
@@ -3206,7 +3310,7 @@
       <c r="C598" s="7"/>
     </row>
     <row r="599" spans="2:3">
-      <c r="B599" s="22"/>
+      <c r="B599" s="20"/>
       <c r="C599" s="7"/>
     </row>
     <row r="600" spans="2:3">
@@ -3214,7 +3318,7 @@
       <c r="C600" s="7"/>
     </row>
     <row r="601" spans="2:3">
-      <c r="B601" s="22"/>
+      <c r="B601" s="20"/>
       <c r="C601" s="7"/>
     </row>
     <row r="602" spans="2:3">
@@ -3230,7 +3334,7 @@
       <c r="C604" s="7"/>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="22"/>
+      <c r="B605" s="20"/>
       <c r="C605" s="7"/>
     </row>
     <row r="606" spans="2:3">
@@ -3238,7 +3342,7 @@
       <c r="C606" s="7"/>
     </row>
     <row r="607" spans="2:3">
-      <c r="B607" s="22"/>
+      <c r="B607" s="20"/>
       <c r="C607" s="7"/>
     </row>
     <row r="608" spans="2:3">
@@ -3246,7 +3350,7 @@
       <c r="C608" s="7"/>
     </row>
     <row r="609" spans="2:3">
-      <c r="B609" s="22"/>
+      <c r="B609" s="20"/>
       <c r="C609" s="7"/>
     </row>
     <row r="610" spans="2:3">
@@ -3254,7 +3358,7 @@
       <c r="C610" s="7"/>
     </row>
     <row r="611" spans="2:3">
-      <c r="B611" s="22"/>
+      <c r="B611" s="20"/>
       <c r="C611" s="7"/>
     </row>
     <row r="612" spans="2:3">
@@ -3262,7 +3366,7 @@
       <c r="C612" s="7"/>
     </row>
     <row r="613" spans="2:3">
-      <c r="B613" s="22"/>
+      <c r="B613" s="20"/>
       <c r="C613" s="7"/>
     </row>
     <row r="614" spans="2:3">
@@ -3270,7 +3374,7 @@
       <c r="C614" s="7"/>
     </row>
     <row r="615" spans="2:3">
-      <c r="B615" s="22"/>
+      <c r="B615" s="20"/>
       <c r="C615" s="7"/>
     </row>
     <row r="616" spans="2:3">
@@ -3282,7 +3386,7 @@
       <c r="C617" s="7"/>
     </row>
     <row r="618" spans="2:3">
-      <c r="B618" s="22"/>
+      <c r="B618" s="20"/>
       <c r="C618" s="7"/>
     </row>
     <row r="619" spans="2:3">
@@ -3294,11 +3398,11 @@
       <c r="C620" s="7"/>
     </row>
     <row r="621" spans="2:3">
-      <c r="B621" s="22"/>
+      <c r="B621" s="20"/>
       <c r="C621" s="7"/>
     </row>
     <row r="622" spans="2:3">
-      <c r="B622" s="22"/>
+      <c r="B622" s="20"/>
       <c r="C622" s="7"/>
     </row>
     <row r="623" spans="2:3">
@@ -3310,7 +3414,7 @@
       <c r="C624" s="7"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="B625" s="22"/>
+      <c r="B625" s="20"/>
       <c r="C625" s="7"/>
     </row>
     <row r="626" spans="2:3">
@@ -3326,7 +3430,7 @@
       <c r="C628" s="7"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="22"/>
+      <c r="B629" s="20"/>
       <c r="C629" s="7"/>
     </row>
     <row r="630" spans="2:3">
@@ -3338,7 +3442,7 @@
       <c r="C631" s="7"/>
     </row>
     <row r="632" spans="2:3">
-      <c r="B632" s="22"/>
+      <c r="B632" s="20"/>
       <c r="C632" s="7"/>
     </row>
     <row r="633" spans="2:3">
@@ -3350,7 +3454,7 @@
       <c r="C634" s="7"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="B635" s="22"/>
+      <c r="B635" s="20"/>
       <c r="C635" s="7"/>
     </row>
     <row r="636" spans="2:3">
@@ -3362,7 +3466,7 @@
       <c r="C637" s="7"/>
     </row>
     <row r="638" spans="2:3">
-      <c r="B638" s="22"/>
+      <c r="B638" s="20"/>
       <c r="C638" s="7"/>
     </row>
     <row r="639" spans="2:3">
@@ -3374,7 +3478,7 @@
       <c r="C640" s="7"/>
     </row>
     <row r="641" spans="2:3">
-      <c r="B641" s="22"/>
+      <c r="B641" s="20"/>
       <c r="C641" s="7"/>
     </row>
     <row r="642" spans="2:3">
@@ -3398,7 +3502,7 @@
       <c r="C646" s="7"/>
     </row>
     <row r="647" spans="2:3">
-      <c r="B647" s="22"/>
+      <c r="B647" s="20"/>
       <c r="C647" s="7"/>
     </row>
     <row r="648" spans="2:3">
@@ -3406,7 +3510,7 @@
       <c r="C648" s="7"/>
     </row>
     <row r="649" spans="2:3">
-      <c r="B649" s="22"/>
+      <c r="B649" s="20"/>
       <c r="C649" s="7"/>
     </row>
     <row r="650" spans="2:3">
@@ -3414,7 +3518,7 @@
       <c r="C650" s="7"/>
     </row>
     <row r="651" spans="2:3">
-      <c r="B651" s="22"/>
+      <c r="B651" s="20"/>
       <c r="C651" s="7"/>
     </row>
     <row r="652" spans="2:3">
@@ -3422,7 +3526,7 @@
       <c r="C652" s="7"/>
     </row>
     <row r="653" spans="2:3">
-      <c r="B653" s="22"/>
+      <c r="B653" s="20"/>
       <c r="C653" s="7"/>
     </row>
     <row r="654" spans="2:3">
@@ -3439,87 +3543,87 @@
     </row>
     <row r="657" spans="2:3">
       <c r="B657" s="9"/>
-      <c r="C657" s="28"/>
+      <c r="C657" s="26"/>
     </row>
     <row r="658" spans="2:3">
       <c r="B658" s="9"/>
-      <c r="C658" s="28"/>
+      <c r="C658" s="26"/>
     </row>
     <row r="659" spans="2:3">
       <c r="B659" s="9"/>
-      <c r="C659" s="28"/>
+      <c r="C659" s="26"/>
     </row>
     <row r="660" spans="2:3">
       <c r="B660" s="9"/>
-      <c r="C660" s="28"/>
+      <c r="C660" s="26"/>
     </row>
     <row r="661" spans="2:3">
       <c r="B661" s="9"/>
-      <c r="C661" s="28"/>
+      <c r="C661" s="26"/>
     </row>
     <row r="662" spans="2:3">
       <c r="B662" s="9"/>
-      <c r="C662" s="28"/>
+      <c r="C662" s="26"/>
     </row>
     <row r="663" spans="2:3">
       <c r="B663" s="9"/>
-      <c r="C663" s="28"/>
+      <c r="C663" s="26"/>
     </row>
     <row r="664" spans="2:3">
       <c r="B664" s="9"/>
-      <c r="C664" s="28"/>
+      <c r="C664" s="26"/>
     </row>
     <row r="665" spans="2:3">
       <c r="B665" s="9"/>
-      <c r="C665" s="28"/>
+      <c r="C665" s="26"/>
     </row>
     <row r="666" spans="2:3">
       <c r="B666" s="9"/>
-      <c r="C666" s="28"/>
+      <c r="C666" s="26"/>
     </row>
     <row r="667" spans="2:3">
       <c r="B667" s="9"/>
-      <c r="C667" s="28"/>
+      <c r="C667" s="26"/>
     </row>
     <row r="668" spans="2:3">
       <c r="B668" s="9"/>
-      <c r="C668" s="28"/>
+      <c r="C668" s="26"/>
     </row>
     <row r="669" spans="2:3">
       <c r="B669" s="9"/>
-      <c r="C669" s="28"/>
+      <c r="C669" s="26"/>
     </row>
     <row r="670" spans="2:3">
       <c r="B670" s="9"/>
-      <c r="C670" s="28"/>
+      <c r="C670" s="26"/>
     </row>
     <row r="671" spans="2:3">
       <c r="B671" s="9"/>
-      <c r="C671" s="28"/>
+      <c r="C671" s="26"/>
     </row>
     <row r="672" spans="2:3">
       <c r="B672" s="9"/>
-      <c r="C672" s="28"/>
+      <c r="C672" s="26"/>
     </row>
     <row r="673" spans="2:3">
       <c r="B673" s="9"/>
-      <c r="C673" s="28"/>
+      <c r="C673" s="26"/>
     </row>
     <row r="674" spans="2:3">
       <c r="B674" s="9"/>
-      <c r="C674" s="28"/>
+      <c r="C674" s="26"/>
     </row>
     <row r="675" spans="2:3">
       <c r="B675" s="9"/>
-      <c r="C675" s="28"/>
+      <c r="C675" s="26"/>
     </row>
     <row r="676" spans="2:3">
       <c r="B676" s="9"/>
-      <c r="C676" s="28"/>
+      <c r="C676" s="26"/>
     </row>
     <row r="677" spans="2:3">
       <c r="B677" s="9"/>
-      <c r="C677" s="28"/>
+      <c r="C677" s="26"/>
     </row>
     <row r="678" spans="2:3">
       <c r="B678" s="9"/>
@@ -3623,59 +3727,59 @@
     </row>
     <row r="703" spans="2:3">
       <c r="B703" s="9"/>
-      <c r="C703" s="28"/>
+      <c r="C703" s="26"/>
     </row>
     <row r="704" spans="2:3">
       <c r="B704" s="9"/>
-      <c r="C704" s="28"/>
+      <c r="C704" s="26"/>
     </row>
     <row r="705" spans="2:3">
       <c r="B705" s="9"/>
-      <c r="C705" s="28"/>
+      <c r="C705" s="26"/>
     </row>
     <row r="706" spans="2:3">
       <c r="B706" s="9"/>
-      <c r="C706" s="28"/>
+      <c r="C706" s="26"/>
     </row>
     <row r="707" spans="2:3">
       <c r="B707" s="9"/>
-      <c r="C707" s="28"/>
+      <c r="C707" s="26"/>
     </row>
     <row r="708" spans="2:3">
       <c r="B708" s="9"/>
-      <c r="C708" s="28"/>
+      <c r="C708" s="26"/>
     </row>
     <row r="709" spans="2:3">
       <c r="B709" s="9"/>
-      <c r="C709" s="28"/>
+      <c r="C709" s="26"/>
     </row>
     <row r="710" spans="2:3">
       <c r="B710" s="9"/>
-      <c r="C710" s="28"/>
+      <c r="C710" s="26"/>
     </row>
     <row r="711" spans="2:3">
       <c r="B711" s="9"/>
-      <c r="C711" s="28"/>
+      <c r="C711" s="26"/>
     </row>
     <row r="712" spans="2:3">
       <c r="B712" s="9"/>
-      <c r="C712" s="28"/>
+      <c r="C712" s="26"/>
     </row>
     <row r="713" spans="2:3">
       <c r="B713" s="9"/>
-      <c r="C713" s="28"/>
+      <c r="C713" s="26"/>
     </row>
     <row r="714" spans="2:3">
       <c r="B714" s="9"/>
-      <c r="C714" s="28"/>
+      <c r="C714" s="26"/>
     </row>
     <row r="715" spans="2:3">
       <c r="B715" s="9"/>
-      <c r="C715" s="28"/>
+      <c r="C715" s="26"/>
     </row>
     <row r="716" spans="2:3">
       <c r="B716" s="9"/>
-      <c r="C716" s="28"/>
+      <c r="C716" s="26"/>
     </row>
     <row r="717" spans="2:3">
       <c r="B717" s="9"/>
@@ -3683,31 +3787,31 @@
     </row>
     <row r="718" spans="2:3">
       <c r="B718" s="9"/>
-      <c r="C718" s="28"/>
+      <c r="C718" s="26"/>
     </row>
     <row r="719" spans="2:3">
       <c r="B719" s="9"/>
-      <c r="C719" s="28"/>
+      <c r="C719" s="26"/>
     </row>
     <row r="720" spans="2:3">
       <c r="B720" s="9"/>
-      <c r="C720" s="28"/>
+      <c r="C720" s="26"/>
     </row>
     <row r="721" spans="2:3">
       <c r="B721" s="9"/>
-      <c r="C721" s="28"/>
+      <c r="C721" s="26"/>
     </row>
     <row r="722" spans="2:3">
       <c r="B722" s="9"/>
-      <c r="C722" s="28"/>
+      <c r="C722" s="26"/>
     </row>
     <row r="723" spans="2:3">
       <c r="B723" s="9"/>
-      <c r="C723" s="28"/>
+      <c r="C723" s="26"/>
     </row>
     <row r="724" spans="2:3">
       <c r="B724" s="9"/>
-      <c r="C724" s="28"/>
+      <c r="C724" s="26"/>
     </row>
     <row r="725" spans="2:3">
       <c r="B725" s="9"/>
@@ -3962,67 +4066,67 @@
       <c r="C787" s="7"/>
     </row>
     <row r="788" spans="2:3">
-      <c r="B788" s="24"/>
+      <c r="B788" s="22"/>
       <c r="C788" s="7"/>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" s="24"/>
+      <c r="B789" s="22"/>
       <c r="C789" s="7"/>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" s="24"/>
+      <c r="B790" s="22"/>
       <c r="C790" s="7"/>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" s="24"/>
+      <c r="B791" s="22"/>
       <c r="C791" s="7"/>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" s="24"/>
+      <c r="B792" s="22"/>
       <c r="C792" s="7"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="24"/>
+      <c r="B793" s="22"/>
       <c r="C793" s="7"/>
     </row>
     <row r="794" spans="2:3">
-      <c r="B794" s="24"/>
+      <c r="B794" s="22"/>
       <c r="C794" s="7"/>
     </row>
     <row r="795" spans="2:3">
-      <c r="B795" s="24"/>
+      <c r="B795" s="22"/>
       <c r="C795" s="7"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="24"/>
+      <c r="B796" s="22"/>
       <c r="C796" s="7"/>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" s="24"/>
+      <c r="B797" s="22"/>
       <c r="C797" s="7"/>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" s="24"/>
+      <c r="B798" s="22"/>
       <c r="C798" s="7"/>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" s="24"/>
+      <c r="B799" s="22"/>
       <c r="C799" s="7"/>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" s="24"/>
+      <c r="B800" s="22"/>
       <c r="C800" s="7"/>
     </row>
     <row r="801" spans="2:3">
-      <c r="B801" s="24"/>
+      <c r="B801" s="22"/>
       <c r="C801" s="7"/>
     </row>
     <row r="802" spans="2:3">
-      <c r="B802" s="24"/>
+      <c r="B802" s="22"/>
       <c r="C802" s="7"/>
     </row>
     <row r="803" spans="2:3">
-      <c r="B803" s="24"/>
+      <c r="B803" s="22"/>
       <c r="C803" s="7"/>
     </row>
     <row r="804" spans="2:3">
@@ -4086,7 +4190,7 @@
       <c r="C823" s="7"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="31"/>
+      <c r="C824" s="29"/>
     </row>
     <row r="825" spans="3:3">
       <c r="C825" s="7"/>
@@ -4338,28 +4442,28 @@
       <c r="C907" s="7"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="28"/>
+      <c r="C908" s="26"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="28"/>
+      <c r="C909" s="26"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="28"/>
+      <c r="C910" s="26"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="28"/>
+      <c r="C911" s="26"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="28"/>
+      <c r="C912" s="26"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="28"/>
+      <c r="C913" s="26"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="28"/>
+      <c r="C914" s="26"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="28"/>
+      <c r="C915" s="26"/>
     </row>
     <row r="916" spans="3:3">
       <c r="C916" s="7"/>
@@ -4650,64 +4754,64 @@
       <c r="C1011" s="7"/>
     </row>
     <row r="1012" spans="3:3">
-      <c r="C1012" s="28"/>
+      <c r="C1012" s="26"/>
     </row>
     <row r="1013" spans="3:3">
-      <c r="C1013" s="28"/>
+      <c r="C1013" s="26"/>
     </row>
     <row r="1014" spans="3:3">
-      <c r="C1014" s="28"/>
+      <c r="C1014" s="26"/>
     </row>
     <row r="1015" spans="3:3">
-      <c r="C1015" s="28"/>
+      <c r="C1015" s="26"/>
     </row>
     <row r="1016" spans="3:3">
-      <c r="C1016" s="28"/>
+      <c r="C1016" s="26"/>
     </row>
     <row r="1017" spans="3:3">
-      <c r="C1017" s="28"/>
+      <c r="C1017" s="26"/>
     </row>
     <row r="1018" spans="3:3">
-      <c r="C1018" s="28"/>
+      <c r="C1018" s="26"/>
     </row>
     <row r="1019" spans="3:3">
-      <c r="C1019" s="28"/>
+      <c r="C1019" s="26"/>
     </row>
     <row r="1020" spans="3:3">
-      <c r="C1020" s="28"/>
+      <c r="C1020" s="26"/>
     </row>
     <row r="1021" spans="3:3">
-      <c r="C1021" s="28"/>
+      <c r="C1021" s="26"/>
     </row>
     <row r="1022" spans="3:3">
-      <c r="C1022" s="28"/>
+      <c r="C1022" s="26"/>
     </row>
     <row r="1023" spans="3:3">
-      <c r="C1023" s="28"/>
+      <c r="C1023" s="26"/>
     </row>
     <row r="1024" spans="3:3">
-      <c r="C1024" s="28"/>
+      <c r="C1024" s="26"/>
     </row>
     <row r="1025" spans="3:3">
-      <c r="C1025" s="28"/>
+      <c r="C1025" s="26"/>
     </row>
     <row r="1026" spans="3:3">
-      <c r="C1026" s="28"/>
+      <c r="C1026" s="26"/>
     </row>
     <row r="1027" spans="3:3">
-      <c r="C1027" s="28"/>
+      <c r="C1027" s="26"/>
     </row>
     <row r="1028" spans="3:3">
-      <c r="C1028" s="28"/>
+      <c r="C1028" s="26"/>
     </row>
     <row r="1029" spans="3:3">
-      <c r="C1029" s="28"/>
+      <c r="C1029" s="26"/>
     </row>
     <row r="1030" spans="3:3">
-      <c r="C1030" s="28"/>
+      <c r="C1030" s="26"/>
     </row>
     <row r="1031" spans="3:3">
-      <c r="C1031" s="28"/>
+      <c r="C1031" s="26"/>
     </row>
     <row r="1032" spans="3:3">
       <c r="C1032" s="7"/>
@@ -4740,178 +4844,178 @@
       <c r="C1041" s="7"/>
     </row>
     <row r="1042" spans="3:3">
-      <c r="C1042" s="28"/>
+      <c r="C1042" s="26"/>
     </row>
     <row r="1043" spans="3:3">
-      <c r="C1043" s="28"/>
+      <c r="C1043" s="26"/>
     </row>
     <row r="1044" spans="3:3">
-      <c r="C1044" s="28"/>
+      <c r="C1044" s="26"/>
     </row>
     <row r="1045" spans="3:3">
-      <c r="C1045" s="28"/>
+      <c r="C1045" s="26"/>
     </row>
     <row r="1046" spans="3:3">
-      <c r="C1046" s="22"/>
+      <c r="C1046" s="20"/>
     </row>
     <row r="1047" spans="3:3">
-      <c r="C1047" s="22"/>
+      <c r="C1047" s="20"/>
     </row>
     <row r="1048" spans="3:3">
-      <c r="C1048" s="22"/>
+      <c r="C1048" s="20"/>
     </row>
     <row r="1049" spans="3:3">
-      <c r="C1049" s="22"/>
+      <c r="C1049" s="20"/>
     </row>
     <row r="1050" spans="3:3">
-      <c r="C1050" s="22"/>
+      <c r="C1050" s="20"/>
     </row>
     <row r="1051" spans="3:3">
-      <c r="C1051" s="22"/>
+      <c r="C1051" s="20"/>
     </row>
     <row r="1052" spans="3:3">
-      <c r="C1052" s="22"/>
+      <c r="C1052" s="20"/>
     </row>
     <row r="1053" spans="3:3">
-      <c r="C1053" s="22"/>
+      <c r="C1053" s="20"/>
     </row>
     <row r="1054" spans="3:3">
-      <c r="C1054" s="22"/>
+      <c r="C1054" s="20"/>
     </row>
     <row r="1055" spans="3:3">
-      <c r="C1055" s="22"/>
+      <c r="C1055" s="20"/>
     </row>
     <row r="1056" spans="3:3">
-      <c r="C1056" s="22"/>
+      <c r="C1056" s="20"/>
     </row>
     <row r="1057" spans="3:3">
-      <c r="C1057" s="22"/>
+      <c r="C1057" s="20"/>
     </row>
     <row r="1058" spans="3:3">
-      <c r="C1058" s="22"/>
+      <c r="C1058" s="20"/>
     </row>
     <row r="1059" spans="3:3">
-      <c r="C1059" s="22"/>
+      <c r="C1059" s="20"/>
     </row>
     <row r="1060" spans="3:3">
-      <c r="C1060" s="22"/>
+      <c r="C1060" s="20"/>
     </row>
     <row r="1061" spans="3:3">
-      <c r="C1061" s="22"/>
+      <c r="C1061" s="20"/>
     </row>
     <row r="1062" spans="3:3">
-      <c r="C1062" s="22"/>
+      <c r="C1062" s="20"/>
     </row>
     <row r="1063" spans="3:3">
-      <c r="C1063" s="22"/>
+      <c r="C1063" s="20"/>
     </row>
     <row r="1064" spans="3:3">
-      <c r="C1064" s="22"/>
+      <c r="C1064" s="20"/>
     </row>
     <row r="1065" spans="3:3">
-      <c r="C1065" s="22"/>
+      <c r="C1065" s="20"/>
     </row>
     <row r="1066" spans="3:3">
-      <c r="C1066" s="22"/>
+      <c r="C1066" s="20"/>
     </row>
     <row r="1067" spans="3:3">
-      <c r="C1067" s="22"/>
+      <c r="C1067" s="20"/>
     </row>
     <row r="1068" spans="3:3">
-      <c r="C1068" s="22"/>
+      <c r="C1068" s="20"/>
     </row>
     <row r="1069" spans="3:3">
-      <c r="C1069" s="22"/>
+      <c r="C1069" s="20"/>
     </row>
     <row r="1070" spans="3:3">
-      <c r="C1070" s="22"/>
+      <c r="C1070" s="20"/>
     </row>
     <row r="1071" spans="3:3">
-      <c r="C1071" s="22"/>
+      <c r="C1071" s="20"/>
     </row>
     <row r="1072" spans="3:3">
-      <c r="C1072" s="22"/>
+      <c r="C1072" s="20"/>
     </row>
     <row r="1073" spans="3:3">
-      <c r="C1073" s="22"/>
+      <c r="C1073" s="20"/>
     </row>
     <row r="1074" spans="3:3">
-      <c r="C1074" s="22"/>
+      <c r="C1074" s="20"/>
     </row>
     <row r="1075" spans="3:3">
-      <c r="C1075" s="22"/>
+      <c r="C1075" s="20"/>
     </row>
     <row r="1076" spans="3:3">
-      <c r="C1076" s="22"/>
+      <c r="C1076" s="20"/>
     </row>
     <row r="1077" spans="3:3">
-      <c r="C1077" s="22"/>
+      <c r="C1077" s="20"/>
     </row>
     <row r="1078" spans="3:3">
-      <c r="C1078" s="22"/>
+      <c r="C1078" s="20"/>
     </row>
     <row r="1079" spans="3:3">
-      <c r="C1079" s="22"/>
+      <c r="C1079" s="20"/>
     </row>
     <row r="1080" spans="3:3">
-      <c r="C1080" s="22"/>
+      <c r="C1080" s="20"/>
     </row>
     <row r="1081" spans="3:3">
-      <c r="C1081" s="22"/>
+      <c r="C1081" s="20"/>
     </row>
     <row r="1082" spans="3:3">
-      <c r="C1082" s="22"/>
+      <c r="C1082" s="20"/>
     </row>
     <row r="1083" spans="3:3">
-      <c r="C1083" s="22"/>
+      <c r="C1083" s="20"/>
     </row>
     <row r="1084" spans="3:3">
-      <c r="C1084" s="22"/>
+      <c r="C1084" s="20"/>
     </row>
     <row r="1085" spans="3:3">
-      <c r="C1085" s="22"/>
+      <c r="C1085" s="20"/>
     </row>
     <row r="1086" spans="3:3">
-      <c r="C1086" s="22"/>
+      <c r="C1086" s="20"/>
     </row>
     <row r="1087" spans="3:3">
-      <c r="C1087" s="22"/>
+      <c r="C1087" s="20"/>
     </row>
     <row r="1088" spans="3:3">
-      <c r="C1088" s="22"/>
+      <c r="C1088" s="20"/>
     </row>
     <row r="1089" spans="3:3">
-      <c r="C1089" s="22"/>
+      <c r="C1089" s="20"/>
     </row>
     <row r="1090" spans="3:3">
-      <c r="C1090" s="22"/>
+      <c r="C1090" s="20"/>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="22"/>
+      <c r="C1091" s="20"/>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="22"/>
+      <c r="C1092" s="20"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="22"/>
+      <c r="C1093" s="20"/>
     </row>
     <row r="1094" spans="3:3">
-      <c r="C1094" s="22"/>
+      <c r="C1094" s="20"/>
     </row>
     <row r="1095" spans="3:3">
-      <c r="C1095" s="22"/>
+      <c r="C1095" s="20"/>
     </row>
     <row r="1096" spans="3:3">
-      <c r="C1096" s="22"/>
+      <c r="C1096" s="20"/>
     </row>
     <row r="1097" spans="3:3">
-      <c r="C1097" s="22"/>
+      <c r="C1097" s="20"/>
     </row>
     <row r="1098" spans="3:3">
-      <c r="C1098" s="22"/>
+      <c r="C1098" s="20"/>
     </row>
     <row r="1099" spans="3:3">
-      <c r="C1099" s="22"/>
+      <c r="C1099" s="20"/>
     </row>
     <row r="1100" spans="3:3">
       <c r="C1100" s="7"/>
@@ -4923,13 +5027,13 @@
       <c r="C1102" s="7"/>
     </row>
     <row r="1103" spans="3:3">
-      <c r="C1103" s="22"/>
+      <c r="C1103" s="20"/>
     </row>
     <row r="1104" spans="3:3">
-      <c r="C1104" s="22"/>
+      <c r="C1104" s="20"/>
     </row>
     <row r="1105" spans="3:3">
-      <c r="C1105" s="22"/>
+      <c r="C1105" s="20"/>
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" s="7"/>
@@ -4938,10 +5042,10 @@
       <c r="C1107" s="7"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="22"/>
+      <c r="C1108" s="20"/>
     </row>
     <row r="1109" spans="3:3">
-      <c r="C1109" s="22"/>
+      <c r="C1109" s="20"/>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" s="7"/>
@@ -4950,10 +5054,10 @@
       <c r="C1111" s="7"/>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="22"/>
+      <c r="C1112" s="20"/>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="22"/>
+      <c r="C1113" s="20"/>
     </row>
     <row r="1114" spans="3:3">
       <c r="C1114" s="7"/>
@@ -4962,10 +5066,10 @@
       <c r="C1115" s="7"/>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="22"/>
+      <c r="C1116" s="20"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="22"/>
+      <c r="C1117" s="20"/>
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" s="7"/>
@@ -5307,7 +5411,7 @@
       <c r="C1230" s="7"/>
     </row>
     <row r="1231" spans="3:3">
-      <c r="C1231" s="32"/>
+      <c r="C1231" s="30"/>
     </row>
     <row r="1232" spans="3:3">
       <c r="C1232" s="7"/>
@@ -5733,118 +5837,118 @@
       <c r="C1372" s="9"/>
     </row>
     <row r="1373" spans="3:3">
-      <c r="C1373" s="28"/>
+      <c r="C1373" s="26"/>
     </row>
     <row r="1374" spans="3:3">
-      <c r="C1374" s="28"/>
+      <c r="C1374" s="26"/>
     </row>
     <row r="1375" spans="3:3">
-      <c r="C1375" s="28"/>
+      <c r="C1375" s="26"/>
     </row>
     <row r="1376" spans="3:3">
-      <c r="C1376" s="28"/>
+      <c r="C1376" s="26"/>
     </row>
     <row r="1377" spans="3:3">
-      <c r="C1377" s="28"/>
+      <c r="C1377" s="26"/>
     </row>
     <row r="1378" spans="3:3">
-      <c r="C1378" s="28"/>
+      <c r="C1378" s="26"/>
     </row>
     <row r="1379" spans="3:3">
-      <c r="C1379" s="28"/>
+      <c r="C1379" s="26"/>
     </row>
     <row r="1380" spans="3:3">
-      <c r="C1380" s="28"/>
+      <c r="C1380" s="26"/>
     </row>
     <row r="1381" spans="3:3">
-      <c r="C1381" s="28"/>
+      <c r="C1381" s="26"/>
     </row>
     <row r="1382" spans="3:3">
-      <c r="C1382" s="28"/>
+      <c r="C1382" s="26"/>
     </row>
     <row r="1383" spans="3:3">
-      <c r="C1383" s="28"/>
+      <c r="C1383" s="26"/>
     </row>
     <row r="1384" spans="3:3">
-      <c r="C1384" s="28"/>
+      <c r="C1384" s="26"/>
     </row>
     <row r="1385" spans="3:3">
-      <c r="C1385" s="28"/>
+      <c r="C1385" s="26"/>
     </row>
     <row r="1386" spans="3:3">
-      <c r="C1386" s="28"/>
+      <c r="C1386" s="26"/>
     </row>
     <row r="1387" spans="3:3">
-      <c r="C1387" s="28"/>
+      <c r="C1387" s="26"/>
     </row>
     <row r="1388" spans="3:3">
-      <c r="C1388" s="28"/>
+      <c r="C1388" s="26"/>
     </row>
     <row r="1389" spans="3:3">
-      <c r="C1389" s="28"/>
+      <c r="C1389" s="26"/>
     </row>
     <row r="1390" spans="3:3">
-      <c r="C1390" s="28"/>
+      <c r="C1390" s="26"/>
     </row>
     <row r="1391" spans="3:3">
-      <c r="C1391" s="28"/>
+      <c r="C1391" s="26"/>
     </row>
     <row r="1392" spans="3:3">
-      <c r="C1392" s="28"/>
+      <c r="C1392" s="26"/>
     </row>
     <row r="1393" spans="3:3">
-      <c r="C1393" s="28"/>
+      <c r="C1393" s="26"/>
     </row>
     <row r="1394" spans="3:3">
-      <c r="C1394" s="28"/>
+      <c r="C1394" s="26"/>
     </row>
     <row r="1395" spans="3:3">
-      <c r="C1395" s="28"/>
+      <c r="C1395" s="26"/>
     </row>
     <row r="1396" spans="3:3">
-      <c r="C1396" s="28"/>
+      <c r="C1396" s="26"/>
     </row>
     <row r="1397" spans="3:3">
-      <c r="C1397" s="28"/>
+      <c r="C1397" s="26"/>
     </row>
     <row r="1398" spans="3:3">
-      <c r="C1398" s="28"/>
+      <c r="C1398" s="26"/>
     </row>
     <row r="1399" spans="3:3">
-      <c r="C1399" s="28"/>
+      <c r="C1399" s="26"/>
     </row>
     <row r="1400" spans="3:3">
-      <c r="C1400" s="28"/>
+      <c r="C1400" s="26"/>
     </row>
     <row r="1401" spans="3:3">
-      <c r="C1401" s="28"/>
+      <c r="C1401" s="26"/>
     </row>
     <row r="1402" spans="3:3">
-      <c r="C1402" s="28"/>
+      <c r="C1402" s="26"/>
     </row>
     <row r="1403" spans="3:3">
-      <c r="C1403" s="28"/>
+      <c r="C1403" s="26"/>
     </row>
     <row r="1404" spans="3:3">
-      <c r="C1404" s="28"/>
+      <c r="C1404" s="26"/>
     </row>
     <row r="1405" spans="3:3">
-      <c r="C1405" s="28"/>
+      <c r="C1405" s="26"/>
     </row>
     <row r="1406" spans="3:3">
-      <c r="C1406" s="28"/>
+      <c r="C1406" s="26"/>
     </row>
     <row r="1407" spans="3:3">
-      <c r="C1407" s="28"/>
+      <c r="C1407" s="26"/>
     </row>
     <row r="1408" spans="3:3">
-      <c r="C1408" s="28"/>
+      <c r="C1408" s="26"/>
     </row>
     <row r="1409" spans="3:3">
-      <c r="C1409" s="28"/>
+      <c r="C1409" s="26"/>
     </row>
     <row r="1410" spans="3:3">
-      <c r="C1410" s="28"/>
+      <c r="C1410" s="26"/>
     </row>
     <row r="1411" spans="3:3">
       <c r="C1411" s="7"/>
@@ -6294,25 +6398,25 @@
       <c r="C1559" s="7"/>
     </row>
     <row r="1560" spans="3:3">
-      <c r="C1560" s="23"/>
+      <c r="C1560" s="21"/>
     </row>
     <row r="1561" spans="3:3">
-      <c r="C1561" s="23"/>
+      <c r="C1561" s="21"/>
     </row>
     <row r="1562" spans="3:3">
-      <c r="C1562" s="23"/>
+      <c r="C1562" s="21"/>
     </row>
     <row r="1563" spans="3:3">
-      <c r="C1563" s="23"/>
+      <c r="C1563" s="21"/>
     </row>
     <row r="1564" spans="3:3">
-      <c r="C1564" s="23"/>
+      <c r="C1564" s="21"/>
     </row>
     <row r="1565" spans="3:3">
-      <c r="C1565" s="23"/>
+      <c r="C1565" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -6365,10 +6469,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>59</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
       <c r="D2" s="9">
@@ -6382,10 +6486,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>59</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>2</v>
       </c>
       <c r="D3" s="9">
@@ -6399,10 +6503,10 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>59</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>3</v>
       </c>
       <c r="D4" s="9">
@@ -6416,10 +6520,10 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>59</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>4</v>
       </c>
       <c r="D5" s="9">
@@ -6433,10 +6537,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>59</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>5</v>
       </c>
       <c r="D6" s="9">
@@ -6450,10 +6554,10 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>59</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>6</v>
       </c>
       <c r="D7" s="9">
@@ -6467,10 +6571,10 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>59</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>7</v>
       </c>
       <c r="D8" s="9">
@@ -6484,10 +6588,10 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>59</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>8</v>
       </c>
       <c r="D9" s="9">
@@ -6501,10 +6605,10 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>59</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>9</v>
       </c>
       <c r="D10" s="9">
@@ -6518,10 +6622,10 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>59</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>10</v>
       </c>
       <c r="D11" s="9">
@@ -6534,163 +6638,163 @@
     <row r="12" spans="1:7">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="22"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="E26" s="22"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="E27" s="22"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="E28" s="22"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="E29" s="22"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="3:5">
-      <c r="E30" s="22"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="E31" s="22"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="E32" s="22"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="E33" s="22"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="13"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="13"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="13"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="13"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="13"/>
+      <c r="B60" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F60"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6726,57 +6830,57 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="C2" s="14"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="15"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="15"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6786,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6861,173 +6965,347 @@
       <c r="D3" s="9">
         <v>1000703</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9">
+        <v>30042</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>30042</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="36"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="36"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="36"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="36"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="36"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="B20" s="36"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="36"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="36"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="36"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="36"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7"/>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="C28" s="13"/>
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D26"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
